--- a/link.xlsx
+++ b/link.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EATL\PycharmProjects\WebScapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F129FFF7-7339-48DE-A468-10AFDBE0DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.rokomari.com/book/226821/ebar-bhinno-kichu-hok?ref=fl2_p4</t>
   </si>
   <si>
     <t>https://www.rokomari.com/book/31808/newroner-onuronon</t>
   </si>
+  <si>
+    <t>https://www.rokomari.com/book/1241/kothao-kew-nei</t>
+  </si>
+  <si>
+    <t>https://www.rokomari.com/book/68311/nurani-ampara-white-boro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,11 +440,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -477,7 +493,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
